--- a/data/Estorno para moradores.xlsx
+++ b/data/Estorno para moradores.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pointer 01\Downloads\data_implantation_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DB1334-9E94-4AA3-AF20-6C9E0FE5CA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0493B-CEA1-4F43-8D3C-007FF11F04AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estorno para moradores" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Nome</t>
   </si>
@@ -951,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,4 +1035,87 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B38EC6-6114-4CE4-A32C-E2A1774CEC98}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44927</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3">
+        <v>8000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44958</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44986</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>